--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Dificultad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.001255725446662</v>
+        <v>-2.129523155263941</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.095762658905231</v>
+        <v>6.859929534716137</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.014436240733749</v>
+        <v>-3.024069655277339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.645313765082005</v>
+        <v>8.988941063914508</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.751159458353357</v>
+        <v>-1.825767241510236</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.286154663329171</v>
+        <v>9.145902934623191</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.522168339693639</v>
+        <v>1.415452227187067</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.72317300718765</v>
+        <v>13.96317290382871</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.557342932201237</v>
+        <v>2.692036750065961</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.79082872354874</v>
+        <v>15.81913111791992</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.668739263448699</v>
+        <v>1.530806100137854</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.24183239975097</v>
+        <v>14.29193514609192</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3833213814913335</v>
+        <v>-0.3961020227767986</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1.314688926773377</v>
+        <v>1.273000604882851</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2038945482785484</v>
+        <v>-0.2007617818187465</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6038419197779975</v>
+        <v>0.6141435820045068</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1786361342901401</v>
+        <v>-0.1822545527143774</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9447962185886029</v>
+        <v>0.9377283790845353</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4521582781933585</v>
+        <v>0.4133908184637829</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.791510610997563</v>
+        <v>3.834916420811882</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2299028187901171</v>
+        <v>0.2311781637678642</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.365597003684404</v>
+        <v>1.341239160095455</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2154061085452016</v>
+        <v>0.1828039044332899</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.739186416141288</v>
+        <v>1.789901728374889</v>
       </c>
     </row>
     <row r="10">
@@ -778,13 +778,13 @@
         <v>-0.8668261974318734</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.986215330589825</v>
+        <v>7.986215330589828</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.6440662898864989</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.075530643504298</v>
+        <v>6.075530643504297</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.034779929273839</v>
+        <v>-2.052898214675202</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.907750644147235</v>
+        <v>2.050311008449731</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.240761407661599</v>
+        <v>-3.28543248214052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.52333067941592</v>
+        <v>5.394784671475755</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.115184462250681</v>
+        <v>-2.10600131940817</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.372536138220165</v>
+        <v>4.49891454936372</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.250506270525181</v>
+        <v>1.097956062397354</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.720853495423301</v>
+        <v>5.634692758477158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.315312320648179</v>
+        <v>1.51964718860422</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.65180352564494</v>
+        <v>10.229070891976</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8748374565863686</v>
+        <v>0.7624742609871371</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.623992187819672</v>
+        <v>7.798627900634486</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>-0.1028012069386292</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.9471247838248941</v>
+        <v>0.9471247838248944</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1081046891267879</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5003128044466951</v>
+        <v>-0.4898920142482792</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4326467121976985</v>
+        <v>0.455345454348959</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3514421965656368</v>
+        <v>-0.3446898182212258</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5716889286741083</v>
+        <v>0.5568109554222447</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3128736511589826</v>
+        <v>-0.3150717686691636</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6238735194300915</v>
+        <v>0.6556572785944325</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5888316461505381</v>
+        <v>0.4604629309267241</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.50207307156007</v>
+        <v>2.392097938151986</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1818573367657041</v>
+        <v>0.2149525713617608</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.499363308249748</v>
+        <v>1.454924772740626</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1699628345178745</v>
+        <v>0.1465474131508006</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.46119261158673</v>
+        <v>1.533340264523382</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>-0.9996090860151741</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.524710404135777</v>
+        <v>4.524710404135779</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.9149242386116647</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.366174466225699</v>
+        <v>-2.454059919795708</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.409417382996875</v>
+        <v>-0.4721612031999884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.482093886800688</v>
+        <v>-3.322440838429655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.124496134574997</v>
+        <v>2.137770784367831</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.451790216145108</v>
+        <v>-2.431050825709415</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.43911096582923</v>
+        <v>1.263932211515659</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9350558208827304</v>
+        <v>0.8068190724165529</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.078111337396124</v>
+        <v>2.941363995026921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.386456492349821</v>
+        <v>1.702666473362016</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.058907847977569</v>
+        <v>6.729184453513652</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6297944339096978</v>
+        <v>0.5788728763335685</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.436899922347237</v>
+        <v>4.354194399547175</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>-0.144848459587654</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.6556536362949286</v>
+        <v>0.6556536362949288</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1737765887130915</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5322092774512773</v>
+        <v>-0.5255928710672803</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1007293868447673</v>
+        <v>-0.1202049028875218</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4196433818698175</v>
+        <v>-0.4213708490287583</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.266611929243073</v>
+        <v>0.2572813264896109</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3998285836874619</v>
+        <v>-0.4001828075314706</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2305013778041408</v>
+        <v>0.2019130207335508</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3618466505558803</v>
+        <v>0.2999543643837</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.104140278666341</v>
+        <v>1.014644014937243</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2468438320770311</v>
+        <v>0.2914121602272464</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.313197742464195</v>
+        <v>1.238048405428058</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1583664556448682</v>
+        <v>0.1288008178152959</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.024763981891732</v>
+        <v>1.015196573956185</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>0.07201304659806354</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.559086320358556</v>
+        <v>4.559086320358554</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.3534889036707449</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.98070766888761</v>
+        <v>-2.984426499570318</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5727416033676429</v>
+        <v>0.82821185537963</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.350543944491037</v>
+        <v>-3.13879135532322</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.362325465164278</v>
+        <v>1.752136801533114</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.32456062564845</v>
+        <v>-2.214942475207018</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.099598829219421</v>
+        <v>1.941670510119942</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.933713363419355</v>
+        <v>1.068980200661411</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.936598677261048</v>
+        <v>4.925004444813641</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.124309222146434</v>
+        <v>3.269602389246371</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.122543411686785</v>
+        <v>7.204528864051711</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.526619204539341</v>
+        <v>1.504888545770272</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.517175680673001</v>
+        <v>5.476750844034812</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>0.01253055360639793</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.7932989677871034</v>
+        <v>0.7932989677871028</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.08485406186259892</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7613659750554531</v>
+        <v>-0.7335724746360469</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1012990574015034</v>
+        <v>0.1322612499312165</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4458167287433885</v>
+        <v>-0.4321560756664948</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1614814533387452</v>
+        <v>0.2143434762026482</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4631695887378131</v>
+        <v>-0.4216676567591041</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3588367491793927</v>
+        <v>0.3386139193679665</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.604719246264964</v>
+        <v>0.7892537064995724</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.19469026328768</v>
+        <v>3.036242457504807</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7507650911166456</v>
+        <v>0.812797848132633</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.825952991693819</v>
+        <v>1.83695964641869</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4813928203759428</v>
+        <v>0.4556016981646508</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.757753626829263</v>
+        <v>1.796137721241303</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.351872781025537</v>
+        <v>-1.37548472972249</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.533304490314247</v>
+        <v>2.450237561403581</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.654233028756893</v>
+        <v>-1.807990394638342</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.36429163223809</v>
+        <v>4.378802475535718</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.250654923187534</v>
+        <v>-1.255780601118303</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.852214162884043</v>
+        <v>3.824784417024363</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3896842800459648</v>
+        <v>0.4524616402773921</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.592763439507245</v>
+        <v>4.463278123444046</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.230754010370732</v>
+        <v>1.106520423641118</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.09760885157102</v>
+        <v>7.038722610303687</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4139162926255156</v>
+        <v>0.5105463405639272</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.484817313413005</v>
+        <v>5.571342939501399</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3322514518632962</v>
+        <v>-0.3374629416937197</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.6126289339901591</v>
+        <v>0.5867513005921082</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1710500579978426</v>
+        <v>-0.180906685866447</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4368338462518685</v>
+        <v>0.432220038629564</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1822040882357013</v>
+        <v>-0.1870604159238843</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5560470785662234</v>
+        <v>0.554458672535655</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1305378564149558</v>
+        <v>0.1468952365583057</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.449794404089233</v>
+        <v>1.466306966176483</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1461021777249071</v>
+        <v>0.1274546618850166</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.851642727627956</v>
+        <v>0.82853421390399</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06809397235132261</v>
+        <v>0.08404127301387469</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9156262192593567</v>
+        <v>0.9347933804956143</v>
       </c>
     </row>
     <row r="34">
